--- a/biology/Zoologie/Acanthogyrus_(Acanthosentis)/Acanthogyrus_(Acanthosentis).xlsx
+++ b/biology/Zoologie/Acanthogyrus_(Acanthosentis)/Acanthogyrus_(Acanthosentis).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acanthogyrus (Acanthosentis) est un sous-genre d'acanthocéphales de la famille des Quadrigyridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le sous-genre Acanthogyrus (Acanthosentis) a été créé en 1929 par les parasitologues indiens S. C. Verma (d) et M. N. Datta (d) initialement comme un genre sous le taxon Acanthosentis[1] et avec comme espèce type ce qu'ils ont notés Acanthogyrus antspinus rebaptisé ultérieurement en Acanthogyrus antspinis.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sous-genre Acanthogyrus (Acanthosentis) a été créé en 1929 par les parasitologues indiens S. C. Verma (d) et M. N. Datta (d) initialement comme un genre sous le taxon Acanthosentis et avec comme espèce type ce qu'ils ont notés Acanthogyrus antspinus rebaptisé ultérieurement en Acanthogyrus antspinis.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sous-genre comporte 43 espèces[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sous-genre comporte 43 espèces :
 Acanthogyrus acanthuri (Cable &amp; Quick, 1954)
 Acanthogyrus adriaticus Amin, 2005
 Acanthogyrus alternatspinus Amin, 2005
@@ -616,7 +632,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) S. C. Verma et M. N. Datta, « Acanthocephala from Northern India - 1. - A New Genus Acanthosentis from a Calcutta Fish », Annals of Tropical Medicine and Parasitology, Liverpool, Maney Publishing (d) et inconnu, vol. 23, no 4,‎ 31 décembre 1929, p. 483-498 (ISSN 0003-4983 et 1364-8594, lire en ligne)</t>
         </is>
